--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/20/seed3/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.944</v>
+        <v>-13.625</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.154</v>
+        <v>-12.041</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.948</v>
+        <v>5.254</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.168</v>
+        <v>-22.151</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.808</v>
+        <v>-21.431</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.008</v>
+        <v>-12.908</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.73</v>
+        <v>-21.768</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,10 +669,10 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.03</v>
+        <v>5.208</v>
       </c>
       <c r="C14" t="n">
-        <v>-10.762</v>
+        <v>-11.869</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.901999999999999</v>
+        <v>5.072000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.276</v>
+        <v>-21.514</v>
       </c>
       <c r="B18" t="n">
-        <v>7.428</v>
+        <v>6.989</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.656</v>
+        <v>-11.657</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.472</v>
+        <v>-11.871</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>6.572</v>
+        <v>6.489999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.178</v>
+        <v>-12.016</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.932</v>
+        <v>-21.761</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.578</v>
+        <v>-13.469</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.561999999999999</v>
+        <v>5.699</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>6.11</v>
+        <v>5.552</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.362</v>
+        <v>5.396</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.574</v>
+        <v>-12.903</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>7.08</v>
+        <v>7.45</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.882</v>
+        <v>-20.727</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.54</v>
+        <v>-13.055</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>8.597999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.404</v>
+        <v>-12.42</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1179,10 +1179,10 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.624000000000001</v>
+        <v>5.954000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.812</v>
+        <v>-13.321</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.672</v>
+        <v>-12.616</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.734</v>
+        <v>5.24</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.087999999999999</v>
+        <v>5.067</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.568</v>
+        <v>-21.838</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-14.222</v>
+        <v>-13.643</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.974</v>
+        <v>-13.27</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.452</v>
+        <v>-12.282</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.932</v>
+        <v>-21.854</v>
       </c>
       <c r="B68" t="n">
-        <v>5.008</v>
+        <v>5.422</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.35</v>
+        <v>-12.255</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.746</v>
+        <v>5.971</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.902</v>
+        <v>-20.729</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.01</v>
+        <v>-20.562</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.45</v>
+        <v>-21.366</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-20.186</v>
+        <v>-20.442</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.04</v>
+        <v>-22.001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.044</v>
+        <v>-22.016</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.056</v>
+        <v>-21.682</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.090000000000001</v>
+        <v>4.853000000000001</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.08</v>
+        <v>5.16</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.412</v>
+        <v>-13.331</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1995,10 +1995,10 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.946000000000001</v>
+        <v>6.272</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.39</v>
+        <v>-10.91</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.536</v>
+        <v>-10.505</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.024</v>
+        <v>-11.451</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.720000000000001</v>
+        <v>6.531000000000001</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.361999999999999</v>
+        <v>5.615</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.054</v>
+        <v>-21.006</v>
       </c>
       <c r="B101" t="n">
-        <v>6.698</v>
+        <v>6.622</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.66</v>
+        <v>-12.136</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.662</v>
+        <v>-21.32</v>
       </c>
       <c r="B102" t="n">
-        <v>5.782000000000001</v>
+        <v>6.409999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
